--- a/natmiOut/OldD7/LR-pairs_lrc2p/Jag2-Notch4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Jag2-Notch4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.2616529261906</v>
+        <v>20.70050833333333</v>
       </c>
       <c r="H2">
-        <v>20.2616529261906</v>
+        <v>62.101525</v>
       </c>
       <c r="I2">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="J2">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.015633779984</v>
+        <v>46.05975733333333</v>
       </c>
       <c r="N2">
-        <v>45.015633779984</v>
+        <v>138.179272</v>
       </c>
       <c r="O2">
-        <v>0.911371540619546</v>
+        <v>0.8970651351272991</v>
       </c>
       <c r="P2">
-        <v>0.911371540619546</v>
+        <v>0.897065135127299</v>
       </c>
       <c r="Q2">
-        <v>912.0911479025373</v>
+        <v>953.4603905099776</v>
       </c>
       <c r="R2">
-        <v>912.0911479025373</v>
+        <v>8581.143514589799</v>
       </c>
       <c r="S2">
-        <v>0.7695792703870004</v>
+        <v>0.7425098894034013</v>
       </c>
       <c r="T2">
-        <v>0.7695792703870004</v>
+        <v>0.7425098894034012</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.2616529261906</v>
+        <v>20.70050833333333</v>
       </c>
       <c r="H3">
-        <v>20.2616529261906</v>
+        <v>62.101525</v>
       </c>
       <c r="I3">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="J3">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.51754008604994</v>
+        <v>2.770761666666667</v>
       </c>
       <c r="N3">
-        <v>2.51754008604994</v>
+        <v>8.312284999999999</v>
       </c>
       <c r="O3">
-        <v>0.05096927876232632</v>
+        <v>0.05396367312415441</v>
       </c>
       <c r="P3">
-        <v>0.05096927876232632</v>
+        <v>0.0539636731241544</v>
       </c>
       <c r="Q3">
-        <v>51.0095234513159</v>
+        <v>57.35617497051388</v>
       </c>
       <c r="R3">
-        <v>51.0095234513159</v>
+        <v>516.2055747346249</v>
       </c>
       <c r="S3">
-        <v>0.0430394176401403</v>
+        <v>0.04466627828260342</v>
       </c>
       <c r="T3">
-        <v>0.0430394176401403</v>
+        <v>0.04466627828260342</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.2616529261906</v>
+        <v>20.70050833333333</v>
       </c>
       <c r="H4">
-        <v>20.2616529261906</v>
+        <v>62.101525</v>
       </c>
       <c r="I4">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="J4">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.43893951667141</v>
+        <v>1.802173666666667</v>
       </c>
       <c r="N4">
-        <v>1.43893951667141</v>
+        <v>5.406521</v>
       </c>
       <c r="O4">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="P4">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="Q4">
-        <v>29.15529306857656</v>
+        <v>37.30591100494722</v>
       </c>
       <c r="R4">
-        <v>29.15529306857656</v>
+        <v>335.7531990445249</v>
       </c>
       <c r="S4">
-        <v>0.02459985410365137</v>
+        <v>0.02905208032770042</v>
       </c>
       <c r="T4">
-        <v>0.02459985410365137</v>
+        <v>0.02905208032770042</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.2616529261906</v>
+        <v>20.70050833333333</v>
       </c>
       <c r="H5">
-        <v>20.2616529261906</v>
+        <v>62.101525</v>
       </c>
       <c r="I5">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="J5">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.421171105180447</v>
+        <v>0.7122493333333333</v>
       </c>
       <c r="N5">
-        <v>0.421171105180447</v>
+        <v>2.136748</v>
       </c>
       <c r="O5">
-        <v>0.008526890032667161</v>
+        <v>0.01387184999319569</v>
       </c>
       <c r="P5">
-        <v>0.008526890032667161</v>
+        <v>0.01387184999319569</v>
       </c>
       <c r="Q5">
-        <v>8.533622755706332</v>
+        <v>14.74392326007777</v>
       </c>
       <c r="R5">
-        <v>8.533622755706332</v>
+        <v>132.6953093407</v>
       </c>
       <c r="S5">
-        <v>0.007200266321185852</v>
+        <v>0.01148187060330538</v>
       </c>
       <c r="T5">
-        <v>0.007200266321185852</v>
+        <v>0.01148187060330538</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.780055535763609</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H6">
-        <v>0.780055535763609</v>
+        <v>2.377799</v>
       </c>
       <c r="I6">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="J6">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.015633779984</v>
+        <v>46.05975733333333</v>
       </c>
       <c r="N6">
-        <v>45.015633779984</v>
+        <v>138.179272</v>
       </c>
       <c r="O6">
-        <v>0.911371540619546</v>
+        <v>0.8970651351272991</v>
       </c>
       <c r="P6">
-        <v>0.911371540619546</v>
+        <v>0.897065135127299</v>
       </c>
       <c r="Q6">
-        <v>35.11469432598383</v>
+        <v>36.50694830914755</v>
       </c>
       <c r="R6">
-        <v>35.11469432598383</v>
+        <v>328.562534782328</v>
       </c>
       <c r="S6">
-        <v>0.02962811436268957</v>
+        <v>0.02842988594102187</v>
       </c>
       <c r="T6">
-        <v>0.02962811436268957</v>
+        <v>0.02842988594102187</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.780055535763609</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H7">
-        <v>0.780055535763609</v>
+        <v>2.377799</v>
       </c>
       <c r="I7">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="J7">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.51754008604994</v>
+        <v>2.770761666666667</v>
       </c>
       <c r="N7">
-        <v>2.51754008604994</v>
+        <v>8.312284999999999</v>
       </c>
       <c r="O7">
-        <v>0.05096927876232632</v>
+        <v>0.05396367312415441</v>
       </c>
       <c r="P7">
-        <v>0.05096927876232632</v>
+        <v>0.0539636731241544</v>
       </c>
       <c r="Q7">
-        <v>1.963821080630048</v>
+        <v>2.196104773412778</v>
       </c>
       <c r="R7">
-        <v>1.963821080630048</v>
+        <v>19.764942960715</v>
       </c>
       <c r="S7">
-        <v>0.001656979127445031</v>
+        <v>0.00171022260458332</v>
       </c>
       <c r="T7">
-        <v>0.001656979127445031</v>
+        <v>0.00171022260458332</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.780055535763609</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H8">
-        <v>0.780055535763609</v>
+        <v>2.377799</v>
       </c>
       <c r="I8">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="J8">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.43893951667141</v>
+        <v>1.802173666666667</v>
       </c>
       <c r="N8">
-        <v>1.43893951667141</v>
+        <v>5.406521</v>
       </c>
       <c r="O8">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="P8">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="Q8">
-        <v>1.122452735608545</v>
+        <v>1.428402247475445</v>
       </c>
       <c r="R8">
-        <v>1.122452735608545</v>
+        <v>12.855620227279</v>
       </c>
       <c r="S8">
-        <v>0.0009470724053182252</v>
+        <v>0.001112372160766193</v>
       </c>
       <c r="T8">
-        <v>0.0009470724053182252</v>
+        <v>0.001112372160766193</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.780055535763609</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H9">
-        <v>0.780055535763609</v>
+        <v>2.377799</v>
       </c>
       <c r="I9">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="J9">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.421171105180447</v>
+        <v>0.7122493333333333</v>
       </c>
       <c r="N9">
-        <v>0.421171105180447</v>
+        <v>2.136748</v>
       </c>
       <c r="O9">
-        <v>0.008526890032667161</v>
+        <v>0.01387184999319569</v>
       </c>
       <c r="P9">
-        <v>0.008526890032667161</v>
+        <v>0.01387184999319569</v>
       </c>
       <c r="Q9">
-        <v>0.3285368520996849</v>
+        <v>0.5645285841835556</v>
       </c>
       <c r="R9">
-        <v>0.3285368520996849</v>
+        <v>5.080757257651999</v>
       </c>
       <c r="S9">
-        <v>0.0002772038206001034</v>
+        <v>0.0004396281804459543</v>
       </c>
       <c r="T9">
-        <v>0.0002772038206001034</v>
+        <v>0.0004396281804459543</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.3068196933829</v>
+        <v>1.562510666666667</v>
       </c>
       <c r="H10">
-        <v>1.3068196933829</v>
+        <v>4.687532</v>
       </c>
       <c r="I10">
-        <v>0.05446264094878253</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="J10">
-        <v>0.05446264094878253</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.015633779984</v>
+        <v>46.05975733333333</v>
       </c>
       <c r="N10">
-        <v>45.015633779984</v>
+        <v>138.179272</v>
       </c>
       <c r="O10">
-        <v>0.911371540619546</v>
+        <v>0.8970651351272991</v>
       </c>
       <c r="P10">
-        <v>0.911371540619546</v>
+        <v>0.897065135127299</v>
       </c>
       <c r="Q10">
-        <v>58.82731673379561</v>
+        <v>71.96886213741155</v>
       </c>
       <c r="R10">
-        <v>58.82731673379561</v>
+        <v>647.719759236704</v>
       </c>
       <c r="S10">
-        <v>0.04963570098770111</v>
+        <v>0.05604594841905903</v>
       </c>
       <c r="T10">
-        <v>0.04963570098770111</v>
+        <v>0.05604594841905902</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.3068196933829</v>
+        <v>1.562510666666667</v>
       </c>
       <c r="H11">
-        <v>1.3068196933829</v>
+        <v>4.687532</v>
       </c>
       <c r="I11">
-        <v>0.05446264094878253</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="J11">
-        <v>0.05446264094878253</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.51754008604994</v>
+        <v>2.770761666666667</v>
       </c>
       <c r="N11">
-        <v>2.51754008604994</v>
+        <v>8.312284999999999</v>
       </c>
       <c r="O11">
-        <v>0.05096927876232632</v>
+        <v>0.05396367312415441</v>
       </c>
       <c r="P11">
-        <v>0.05096927876232632</v>
+        <v>0.0539636731241544</v>
       </c>
       <c r="Q11">
-        <v>3.289970963330942</v>
+        <v>4.329344658957777</v>
       </c>
       <c r="R11">
-        <v>3.289970963330942</v>
+        <v>38.96410193062</v>
       </c>
       <c r="S11">
-        <v>0.002775921528650985</v>
+        <v>0.003371489005634058</v>
       </c>
       <c r="T11">
-        <v>0.002775921528650985</v>
+        <v>0.003371489005634058</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.3068196933829</v>
+        <v>1.562510666666667</v>
       </c>
       <c r="H12">
-        <v>1.3068196933829</v>
+        <v>4.687532</v>
       </c>
       <c r="I12">
-        <v>0.05446264094878253</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="J12">
-        <v>0.05446264094878253</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.43893951667141</v>
+        <v>1.802173666666667</v>
       </c>
       <c r="N12">
-        <v>1.43893951667141</v>
+        <v>5.406521</v>
       </c>
       <c r="O12">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="P12">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="Q12">
-        <v>1.88043449797307</v>
+        <v>2.815915577352444</v>
       </c>
       <c r="R12">
-        <v>1.88043449797307</v>
+        <v>25.343240196172</v>
       </c>
       <c r="S12">
-        <v>0.001586621482171536</v>
+        <v>0.002192901965010782</v>
       </c>
       <c r="T12">
-        <v>0.001586621482171536</v>
+        <v>0.002192901965010783</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.3068196933829</v>
+        <v>1.562510666666667</v>
       </c>
       <c r="H13">
-        <v>1.3068196933829</v>
+        <v>4.687532</v>
       </c>
       <c r="I13">
-        <v>0.05446264094878253</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="J13">
-        <v>0.05446264094878253</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.421171105180447</v>
+        <v>0.7122493333333333</v>
       </c>
       <c r="N13">
-        <v>0.421171105180447</v>
+        <v>2.136748</v>
       </c>
       <c r="O13">
-        <v>0.008526890032667161</v>
+        <v>0.01387184999319569</v>
       </c>
       <c r="P13">
-        <v>0.008526890032667161</v>
+        <v>0.01387184999319569</v>
       </c>
       <c r="Q13">
-        <v>0.5503946945336489</v>
+        <v>1.112897180659555</v>
       </c>
       <c r="R13">
-        <v>0.5503946945336489</v>
+        <v>10.016074625936</v>
       </c>
       <c r="S13">
-        <v>0.0004643969502589042</v>
+        <v>0.0008666717262233624</v>
       </c>
       <c r="T13">
-        <v>0.0004643969502589042</v>
+        <v>0.0008666717262233624</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.64626296417273</v>
+        <v>1.953751</v>
       </c>
       <c r="H14">
-        <v>1.64626296417273</v>
+        <v>5.861253</v>
       </c>
       <c r="I14">
-        <v>0.0686091808831866</v>
+        <v>0.07812076138024482</v>
       </c>
       <c r="J14">
-        <v>0.0686091808831866</v>
+        <v>0.07812076138024483</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>45.015633779984</v>
+        <v>46.05975733333333</v>
       </c>
       <c r="N14">
-        <v>45.015633779984</v>
+        <v>138.179272</v>
       </c>
       <c r="O14">
-        <v>0.911371540619546</v>
+        <v>0.8970651351272991</v>
       </c>
       <c r="P14">
-        <v>0.911371540619546</v>
+        <v>0.897065135127299</v>
       </c>
       <c r="Q14">
-        <v>74.10757070075053</v>
+        <v>89.98929694975732</v>
       </c>
       <c r="R14">
-        <v>74.10757070075053</v>
+        <v>809.903672547816</v>
       </c>
       <c r="S14">
-        <v>0.06252845488215487</v>
+        <v>0.0700794113638168</v>
       </c>
       <c r="T14">
-        <v>0.06252845488215487</v>
+        <v>0.07007941136381682</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.64626296417273</v>
+        <v>1.953751</v>
       </c>
       <c r="H15">
-        <v>1.64626296417273</v>
+        <v>5.861253</v>
       </c>
       <c r="I15">
-        <v>0.0686091808831866</v>
+        <v>0.07812076138024482</v>
       </c>
       <c r="J15">
-        <v>0.0686091808831866</v>
+        <v>0.07812076138024483</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.51754008604994</v>
+        <v>2.770761666666667</v>
       </c>
       <c r="N15">
-        <v>2.51754008604994</v>
+        <v>8.312284999999999</v>
       </c>
       <c r="O15">
-        <v>0.05096927876232632</v>
+        <v>0.05396367312415441</v>
       </c>
       <c r="P15">
-        <v>0.05096927876232632</v>
+        <v>0.0539636731241544</v>
       </c>
       <c r="Q15">
-        <v>4.144533004484244</v>
+        <v>5.413378377011666</v>
       </c>
       <c r="R15">
-        <v>4.144533004484244</v>
+        <v>48.72040539310499</v>
       </c>
       <c r="S15">
-        <v>0.003496960466090008</v>
+        <v>0.004215683231333597</v>
       </c>
       <c r="T15">
-        <v>0.003496960466090008</v>
+        <v>0.004215683231333597</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.64626296417273</v>
+        <v>1.953751</v>
       </c>
       <c r="H16">
-        <v>1.64626296417273</v>
+        <v>5.861253</v>
       </c>
       <c r="I16">
-        <v>0.0686091808831866</v>
+        <v>0.07812076138024482</v>
       </c>
       <c r="J16">
-        <v>0.0686091808831866</v>
+        <v>0.07812076138024483</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.43893951667141</v>
+        <v>1.802173666666667</v>
       </c>
       <c r="N16">
-        <v>1.43893951667141</v>
+        <v>5.406521</v>
       </c>
       <c r="O16">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="P16">
-        <v>0.02913229058546055</v>
+        <v>0.03509934175535083</v>
       </c>
       <c r="Q16">
-        <v>2.368872833980751</v>
+        <v>3.520998603423666</v>
       </c>
       <c r="R16">
-        <v>2.368872833980751</v>
+        <v>31.688987430813</v>
       </c>
       <c r="S16">
-        <v>0.001998742594319417</v>
+        <v>0.002741987301873426</v>
       </c>
       <c r="T16">
-        <v>0.001998742594319417</v>
+        <v>0.002741987301873426</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.64626296417273</v>
+        <v>1.953751</v>
       </c>
       <c r="H17">
-        <v>1.64626296417273</v>
+        <v>5.861253</v>
       </c>
       <c r="I17">
-        <v>0.0686091808831866</v>
+        <v>0.07812076138024482</v>
       </c>
       <c r="J17">
-        <v>0.0686091808831866</v>
+        <v>0.07812076138024483</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.421171105180447</v>
+        <v>0.7122493333333333</v>
       </c>
       <c r="N17">
-        <v>0.421171105180447</v>
+        <v>2.136748</v>
       </c>
       <c r="O17">
-        <v>0.008526890032667161</v>
+        <v>0.01387184999319569</v>
       </c>
       <c r="P17">
-        <v>0.008526890032667161</v>
+        <v>0.01387184999319569</v>
       </c>
       <c r="Q17">
-        <v>0.6933583920382673</v>
+        <v>1.391557847249333</v>
       </c>
       <c r="R17">
-        <v>0.6933583920382673</v>
+        <v>12.524020625244</v>
       </c>
       <c r="S17">
-        <v>0.0005850229406223022</v>
+        <v>0.001083679483220992</v>
       </c>
       <c r="T17">
-        <v>0.0005850229406223022</v>
+        <v>0.001083679483220992</v>
       </c>
     </row>
   </sheetData>
